--- a/坐标配送任务/test-xy - 客户自定义时间.xlsx
+++ b/坐标配送任务/test-xy - 客户自定义时间.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\VSCode Workplace\new_Delivery\坐标测试文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GithubRepositories\new_Delivery\坐标配送任务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D84806-E35B-4B15-9209-55A0C9DF63E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A96B7-2FF0-4F5C-B7B0-BFA2006AC8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="2712" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="825" windowWidth="20730" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="节点信息" sheetId="1" r:id="rId1"/>
@@ -489,19 +489,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="12" max="12" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -527,7 +527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -547,7 +547,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -590,12 +590,10 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8">
-        <v>5</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -612,11 +610,15 @@
         <v>1.5</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3.5</v>
+      </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -637,7 +639,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -658,7 +660,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -674,13 +676,11 @@
       <c r="E8" s="2">
         <v>1.7</v>
       </c>
-      <c r="G8" s="8">
-        <v>3</v>
-      </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -696,12 +696,14 @@
       <c r="E9" s="2">
         <v>0.6</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>0.8</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -717,14 +719,11 @@
       <c r="E10" s="2">
         <v>1.2</v>
       </c>
-      <c r="F10" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="G10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -745,7 +744,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -766,7 +765,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -787,7 +786,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -803,14 +802,12 @@
       <c r="E14" s="2">
         <v>1.3</v>
       </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -831,7 +828,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -848,11 +845,15 @@
         <v>1.7</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -870,12 +871,10 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8">
-        <v>1.2</v>
-      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -896,7 +895,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -917,7 +916,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -938,7 +937,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -970,13 +969,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0779A039-5C21-49C6-81C1-F1E9BD2A1C10}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -993,7 +992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>

--- a/坐标配送任务/test-xy - 客户自定义时间.xlsx
+++ b/坐标配送任务/test-xy - 客户自定义时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GithubRepositories\new_Delivery\坐标配送任务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A96B7-2FF0-4F5C-B7B0-BFA2006AC8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE083CA-883B-48E7-914E-F5518760D2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="825" windowWidth="20730" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
